--- a/datamining/final_data/sum1971_nltk.xlsx
+++ b/datamining/final_data/sum1971_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IO2"/>
+  <dimension ref="A1:GZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,1235 +442,1030 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>bias</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>changing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>against</t>
+          <t>job</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>bias</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>changing</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>high</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>program</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>recommendations</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>school</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>senior</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>degree</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>recommendations</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>men</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>senior</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>parental</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>degree</t>
+          <t>women</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>children</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>device</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>something</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>modification</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>7-year-old</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>myself</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>screening</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>adolescent</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>modification</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>7-year-old</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>underachieves</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>by-standers</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>innocent</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>adolescent</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>element</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>child</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>reasons</t>
+          <t>insights</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>greek</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>mythology</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>underachieves</t>
+          <t>solomon</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>by-standers</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>greeks</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>innocent</t>
+          <t>thank</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>element</t>
+          <t>childs</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>major</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>development</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>.4</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>biblical</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>pentateuch</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>greek</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>mythology</t>
+          <t>research</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>solomon</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>solutions</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>misinterpretations</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>greeks</t>
+          <t>reveal</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>rorschach</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>vocabulary</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>childs</t>
+          <t>deadlines</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>images</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>original</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>production</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>.4</t>
+          <t>time</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>biblical</t>
+          <t>50</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>pentateuch</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>provisions</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>states</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>education</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>individualization</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>solutions</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>misinterpretations</t>
+          <t>social</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>vehicle</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>reveal</t>
+          <t>american</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>rorschach</t>
+          <t>british</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>infant</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>open</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>deadlines</t>
+          <t>students</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>images</t>
+          <t>synopsis</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>theatre</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>biased</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>book</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>ep</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>provisions</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>myers</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>review</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>individualization</t>
+          <t>brearley</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>inquiry</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>piaget</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>vehicle</t>
+          <t>gowan</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>jc</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>british</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>infant</t>
+          <t>jp</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>total</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>synopsis</t>
+          <t>come</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>theatre</t>
+          <t>hither</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>biased</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>conference</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>house</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>torrance</t>
+          <t>view</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>white</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>young</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>myers</t>
+          <t>hollow</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>re</t>
+          <t>success</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>benefit</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>independent</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>brearley</t>
+          <t>potentially</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>study</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>piaget</t>
+          <t>construct</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>gowan</t>
+          <t>books</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>jc</t>
+          <t>fifth</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>jp</t>
+          <t>sixth</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>association</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>happenings</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>national</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>hither</t>
+          <t>new</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>knew</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>know</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>wish</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>conference</t>
+          <t>parent-school</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>faiths</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>various</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>hollow</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>consensual</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>preadolescence</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>independent</t>
+          <t>sources</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>potentially</t>
+          <t>validation</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>become</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>music</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>construct</t>
+          <t>words</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>books</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>fifth</t>
+          <t>families</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>sixth</t>
+          <t>style</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>spark</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>happenings</t>
+          <t>think</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>forgotten</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>year</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>knew</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>included</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>roses</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>then</t>
+          <t>thorns</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>wish</t>
+          <t>bored</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>parent-school</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>common</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>judgment</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>faiths</t>
+          <t>sense</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>ever</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>retarded</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>consensual</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>preadolescence</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>validation</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>music</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>words</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>worth</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>families</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>mother</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>spark</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>think</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>forgotten</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>rural</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>bed</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>included</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>roses</t>
-        </is>
-      </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>thorns</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>bored</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>judgment</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
-        <is>
-          <t>sense</t>
-        </is>
-      </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>editorial</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>ever</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>retarded</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>seek</t>
         </is>
@@ -1684,745 +1479,622 @@
         <v>1971</v>
       </c>
       <c r="C2" t="n">
-        <v>2.69</v>
+        <v>0.65</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>1.61</v>
       </c>
       <c r="E2" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>0.79</v>
       </c>
       <c r="G2" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0.64</v>
+        <v>0.47</v>
       </c>
       <c r="J2" t="n">
-        <v>0.32</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5700000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="L2" t="n">
-        <v>0.32</v>
+        <v>1.13</v>
       </c>
       <c r="M2" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="O2" t="n">
-        <v>2.29</v>
+        <v>0.47</v>
       </c>
       <c r="P2" t="n">
-        <v>2.41</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.1</v>
+        <v>0.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>0.36</v>
       </c>
       <c r="S2" t="n">
-        <v>0.44</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9200000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="U2" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="V2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BS2" t="n">
         <v>0.34</v>
       </c>
-      <c r="W2" t="n">
+      <c r="BT2" t="n">
         <v>0.34</v>
       </c>
-      <c r="X2" t="n">
+      <c r="BU2" t="n">
         <v>0.34</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="BV2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="BW2" t="n">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="BX2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="BY2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="BZ2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="CA2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AH2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AX2" t="n">
+      <c r="CB2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0.71</v>
       </c>
-      <c r="AY2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="CG2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="CH2" t="n">
         <v>0.39</v>
       </c>
       <c r="CI2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="FJ2" t="n">
         <v>0.52</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="FK2" t="n">
         <v>0.52</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="FL2" t="n">
         <v>0.52</v>
       </c>
-      <c r="CL2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="EZ2" t="n">
+      <c r="FM2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GB2" t="n">
         <v>0.42</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="GC2" t="n">
         <v>0.42</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="GD2" t="n">
         <v>0.42</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="GE2" t="n">
         <v>0.42</v>
       </c>
-      <c r="FD2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.43</v>
-      </c>
       <c r="GF2" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="GK2" t="n">
+        <v>1971</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GW2" t="n">
         <v>0.52</v>
       </c>
-      <c r="GL2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.44</v>
-      </c>
       <c r="GX2" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>1971</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.45</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
